--- a/Code/Results/Cases/Case_5_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_244/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006565491482256</v>
+        <v>1.049841917968286</v>
       </c>
       <c r="D2">
-        <v>1.027279350514203</v>
+        <v>1.053400617270444</v>
       </c>
       <c r="E2">
-        <v>1.011326604346115</v>
+        <v>1.046930530253106</v>
       </c>
       <c r="F2">
-        <v>1.03180397660367</v>
+        <v>1.062666392331431</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051604929878317</v>
+        <v>1.043572735451399</v>
       </c>
       <c r="J2">
-        <v>1.028551587584001</v>
+        <v>1.054878226620456</v>
       </c>
       <c r="K2">
-        <v>1.038371285224718</v>
+        <v>1.056146689430898</v>
       </c>
       <c r="L2">
-        <v>1.022630365063167</v>
+        <v>1.049694587561332</v>
       </c>
       <c r="M2">
-        <v>1.042837323416169</v>
+        <v>1.065387121013248</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01425113201323</v>
+        <v>1.051358347618561</v>
       </c>
       <c r="D3">
-        <v>1.03313939352566</v>
+        <v>1.054557327506738</v>
       </c>
       <c r="E3">
-        <v>1.017772259551202</v>
+        <v>1.048242175690228</v>
       </c>
       <c r="F3">
-        <v>1.038280765943552</v>
+        <v>1.063971957731935</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054247216675504</v>
+        <v>1.043978837764573</v>
       </c>
       <c r="J3">
-        <v>1.034360694750831</v>
+        <v>1.056041327173583</v>
       </c>
       <c r="K3">
-        <v>1.043365106319589</v>
+        <v>1.057115556701128</v>
       </c>
       <c r="L3">
-        <v>1.028182681007421</v>
+        <v>1.05081667769036</v>
       </c>
       <c r="M3">
-        <v>1.048446190862499</v>
+        <v>1.066506313909522</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019073834302248</v>
+        <v>1.052338173658039</v>
       </c>
       <c r="D4">
-        <v>1.036818639114789</v>
+        <v>1.055304362615863</v>
       </c>
       <c r="E4">
-        <v>1.021822326013426</v>
+        <v>1.049089793449872</v>
       </c>
       <c r="F4">
-        <v>1.042350204469065</v>
+        <v>1.06481555939605</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055890423303514</v>
+        <v>1.044239353842964</v>
       </c>
       <c r="J4">
-        <v>1.038001901446294</v>
+        <v>1.056792135404184</v>
       </c>
       <c r="K4">
-        <v>1.046492110848377</v>
+        <v>1.057740469206848</v>
       </c>
       <c r="L4">
-        <v>1.031664320126493</v>
+        <v>1.05154109995509</v>
       </c>
       <c r="M4">
-        <v>1.051963017790227</v>
+        <v>1.067228772077114</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021067334570895</v>
+        <v>1.052749763570396</v>
       </c>
       <c r="D5">
-        <v>1.038339864059145</v>
+        <v>1.055618077640463</v>
       </c>
       <c r="E5">
-        <v>1.023497662010058</v>
+        <v>1.049445873179393</v>
       </c>
       <c r="F5">
-        <v>1.044033481894952</v>
+        <v>1.065169930766176</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056566026196244</v>
+        <v>1.044348336093321</v>
       </c>
       <c r="J5">
-        <v>1.039505993177359</v>
+        <v>1.057107350766834</v>
       </c>
       <c r="K5">
-        <v>1.047783007579059</v>
+        <v>1.058002705792262</v>
       </c>
       <c r="L5">
-        <v>1.033102822974902</v>
+        <v>1.051845258430362</v>
       </c>
       <c r="M5">
-        <v>1.053415970025407</v>
+        <v>1.067532083104964</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021400116679248</v>
+        <v>1.052818852254556</v>
       </c>
       <c r="D6">
-        <v>1.038593826585143</v>
+        <v>1.055670732057909</v>
       </c>
       <c r="E6">
-        <v>1.023777400339951</v>
+        <v>1.049505645521731</v>
       </c>
       <c r="F6">
-        <v>1.044314541278691</v>
+        <v>1.065229415083846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056678591475074</v>
+        <v>1.044366603165146</v>
       </c>
       <c r="J6">
-        <v>1.039757014037916</v>
+        <v>1.057160252083043</v>
       </c>
       <c r="K6">
-        <v>1.047998400543576</v>
+        <v>1.058046708646904</v>
       </c>
       <c r="L6">
-        <v>1.033342916407939</v>
+        <v>1.051896305336694</v>
       </c>
       <c r="M6">
-        <v>1.053658469234801</v>
+        <v>1.067582986436316</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019100602427234</v>
+        <v>1.052343674625897</v>
       </c>
       <c r="D7">
-        <v>1.036839064314651</v>
+        <v>1.055308555815779</v>
       </c>
       <c r="E7">
-        <v>1.021844817254538</v>
+        <v>1.049094552414469</v>
       </c>
       <c r="F7">
-        <v>1.042372802641294</v>
+        <v>1.064820295612509</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055899509557125</v>
+        <v>1.044240812183229</v>
       </c>
       <c r="J7">
-        <v>1.038022102104575</v>
+        <v>1.056796348988228</v>
       </c>
       <c r="K7">
-        <v>1.046509451367554</v>
+        <v>1.057743975092326</v>
       </c>
       <c r="L7">
-        <v>1.031683638622114</v>
+        <v>1.05154516565622</v>
       </c>
       <c r="M7">
-        <v>1.051982530717977</v>
+        <v>1.067232826540467</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009195325244489</v>
+        <v>1.050354697972817</v>
       </c>
       <c r="D8">
-        <v>1.029283989787763</v>
+        <v>1.053791832624424</v>
       </c>
       <c r="E8">
-        <v>1.013530933542599</v>
+        <v>1.047374039085285</v>
       </c>
       <c r="F8">
-        <v>1.03401897685105</v>
+        <v>1.06310786311509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052512135615612</v>
+        <v>1.043710448735697</v>
       </c>
       <c r="J8">
-        <v>1.030540112072712</v>
+        <v>1.055271676980944</v>
       </c>
       <c r="K8">
-        <v>1.040081379522114</v>
+        <v>1.056474541392767</v>
       </c>
       <c r="L8">
-        <v>1.024530686737055</v>
+        <v>1.050074146931831</v>
       </c>
       <c r="M8">
-        <v>1.044757043097813</v>
+        <v>1.065765719556167</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.990486564314999</v>
+        <v>1.046838767276418</v>
       </c>
       <c r="D9">
-        <v>1.015037611745987</v>
+        <v>1.0511079795217</v>
       </c>
       <c r="E9">
-        <v>0.9978773512952861</v>
+        <v>1.044333561054593</v>
       </c>
       <c r="F9">
-        <v>1.018289989225242</v>
+        <v>1.060081014239945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045997389511287</v>
+        <v>1.042758479484686</v>
       </c>
       <c r="J9">
-        <v>1.016379797912659</v>
+        <v>1.052571012620835</v>
       </c>
       <c r="K9">
-        <v>1.027891336152821</v>
+        <v>1.054222048159248</v>
       </c>
       <c r="L9">
-        <v>1.011004961127755</v>
+        <v>1.047469191202959</v>
       </c>
       <c r="M9">
-        <v>1.031093133590373</v>
+        <v>1.063166987156192</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9770085619297733</v>
+        <v>1.0444868782354</v>
       </c>
       <c r="D10">
-        <v>1.004800404179985</v>
+        <v>1.049310919235608</v>
       </c>
       <c r="E10">
-        <v>0.9866422218064904</v>
+        <v>1.042300359444692</v>
       </c>
       <c r="F10">
-        <v>1.007002721973881</v>
+        <v>1.058056511637484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041230091580448</v>
+        <v>1.042111995430485</v>
       </c>
       <c r="J10">
-        <v>1.006165036111513</v>
+        <v>1.05076081334725</v>
       </c>
       <c r="K10">
-        <v>1.019083523408415</v>
+        <v>1.052709623999339</v>
       </c>
       <c r="L10">
-        <v>1.00125691736508</v>
+        <v>1.045723597580537</v>
       </c>
       <c r="M10">
-        <v>1.02124668081598</v>
+        <v>1.061425112625559</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9708910444974085</v>
+        <v>1.043466496473812</v>
       </c>
       <c r="D11">
-        <v>1.00016264782724</v>
+        <v>1.048530848934372</v>
       </c>
       <c r="E11">
-        <v>0.9815548092049621</v>
+        <v>1.041418406056197</v>
       </c>
       <c r="F11">
-        <v>1.001892718923898</v>
+        <v>1.057178238213671</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039050133268362</v>
+        <v>1.041829221596281</v>
       </c>
       <c r="J11">
-        <v>1.001527012280516</v>
+        <v>1.049974585501838</v>
       </c>
       <c r="K11">
-        <v>1.015081497500168</v>
+        <v>1.05205211180934</v>
       </c>
       <c r="L11">
-        <v>0.9968331644944511</v>
+        <v>1.044965538224853</v>
       </c>
       <c r="M11">
-        <v>1.016779029391547</v>
+        <v>1.060668566129912</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9685721692421719</v>
+        <v>1.043087171848374</v>
       </c>
       <c r="D12">
-        <v>0.9984062587467915</v>
+        <v>1.048240800025717</v>
       </c>
       <c r="E12">
-        <v>0.9796284249568062</v>
+        <v>1.04109056737934</v>
       </c>
       <c r="F12">
-        <v>0.9999579866398186</v>
+        <v>1.056851753821971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038221525176688</v>
+        <v>1.04172375705516</v>
       </c>
       <c r="J12">
-        <v>0.9997688491841372</v>
+        <v>1.049682178191639</v>
       </c>
       <c r="K12">
-        <v>1.013564056152227</v>
+        <v>1.051807482955587</v>
       </c>
       <c r="L12">
-        <v>0.9951566034502478</v>
+        <v>1.044683623398944</v>
       </c>
       <c r="M12">
-        <v>1.015085991603572</v>
+        <v>1.060387198959076</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9690717578312131</v>
+        <v>1.043168552417711</v>
       </c>
       <c r="D13">
-        <v>0.9987845873963279</v>
+        <v>1.048303029994169</v>
       </c>
       <c r="E13">
-        <v>0.9800433586031969</v>
+        <v>1.041160900948644</v>
       </c>
       <c r="F13">
-        <v>1.000374708198033</v>
+        <v>1.05692179745679</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038400144761466</v>
+        <v>1.041746399049079</v>
       </c>
       <c r="J13">
-        <v>1.000147637261184</v>
+        <v>1.049744917281754</v>
       </c>
       <c r="K13">
-        <v>1.01389099757867</v>
+        <v>1.051859974845118</v>
       </c>
       <c r="L13">
-        <v>0.9955177933275239</v>
+        <v>1.04474411047734</v>
       </c>
       <c r="M13">
-        <v>1.015450723114098</v>
+        <v>1.060447569204348</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9707003421368207</v>
+        <v>1.04343514774713</v>
       </c>
       <c r="D14">
-        <v>1.000018170367398</v>
+        <v>1.048506879475095</v>
       </c>
       <c r="E14">
-        <v>0.9813963426532847</v>
+        <v>1.041391311784634</v>
       </c>
       <c r="F14">
-        <v>1.001733561149838</v>
+        <v>1.057151256142726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038982034665644</v>
+        <v>1.041820512647293</v>
       </c>
       <c r="J14">
-        <v>1.001382423452952</v>
+        <v>1.049950422554126</v>
       </c>
       <c r="K14">
-        <v>1.014956712441144</v>
+        <v>1.052031898894915</v>
       </c>
       <c r="L14">
-        <v>0.9966952787176082</v>
+        <v>1.044942241986385</v>
       </c>
       <c r="M14">
-        <v>1.016639784979469</v>
+        <v>1.060645315450162</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9716974594725091</v>
+        <v>1.043599364652962</v>
       </c>
       <c r="D15">
-        <v>1.000773659094831</v>
+        <v>1.048632438459045</v>
       </c>
       <c r="E15">
-        <v>0.9822249935200963</v>
+        <v>1.041533243238367</v>
       </c>
       <c r="F15">
-        <v>1.002565835247433</v>
+        <v>1.057292599285904</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039338007038553</v>
+        <v>1.041866119451921</v>
       </c>
       <c r="J15">
-        <v>1.002138425915047</v>
+        <v>1.050076992263247</v>
       </c>
       <c r="K15">
-        <v>1.015609153516776</v>
+        <v>1.052137773865267</v>
       </c>
       <c r="L15">
-        <v>0.9974162488223564</v>
+        <v>1.045064272389437</v>
       </c>
       <c r="M15">
-        <v>1.017367865849327</v>
+        <v>1.06076710659733</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9774082802079604</v>
+        <v>1.044554554728186</v>
       </c>
       <c r="D16">
-        <v>1.005103637396256</v>
+        <v>1.049362648738497</v>
       </c>
       <c r="E16">
-        <v>0.9869748998564075</v>
+        <v>1.042358858245777</v>
       </c>
       <c r="F16">
-        <v>1.007336902642511</v>
+        <v>1.058114764419107</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041372207859041</v>
+        <v>1.042130702085244</v>
       </c>
       <c r="J16">
-        <v>1.006468062430759</v>
+        <v>1.050812941566494</v>
       </c>
       <c r="K16">
-        <v>1.019344942699026</v>
+        <v>1.052753205191828</v>
       </c>
       <c r="L16">
-        <v>1.001545994813002</v>
+        <v>1.045773860461813</v>
       </c>
       <c r="M16">
-        <v>1.021538646360552</v>
+        <v>1.061475273079572</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9809123385820943</v>
+        <v>1.045153178763844</v>
       </c>
       <c r="D17">
-        <v>1.007762895442363</v>
+        <v>1.049820169127764</v>
       </c>
       <c r="E17">
-        <v>0.9898926463501038</v>
+        <v>1.042876321165436</v>
       </c>
       <c r="F17">
-        <v>1.010267948393244</v>
+        <v>1.058630040390085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04261624229171</v>
+        <v>1.042295904953318</v>
       </c>
       <c r="J17">
-        <v>1.009124317910979</v>
+        <v>1.051273935915164</v>
       </c>
       <c r="K17">
-        <v>1.021636168414766</v>
+        <v>1.053138542974239</v>
       </c>
       <c r="L17">
-        <v>1.004080245778949</v>
+        <v>1.046218371231637</v>
       </c>
       <c r="M17">
-        <v>1.02409830703985</v>
+        <v>1.061918866269385</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9829293582695964</v>
+        <v>1.04550215385481</v>
       </c>
       <c r="D18">
-        <v>1.009294435356219</v>
+        <v>1.050086847086187</v>
       </c>
       <c r="E18">
-        <v>0.991573290005879</v>
+        <v>1.043177998135683</v>
       </c>
       <c r="F18">
-        <v>1.011956344415567</v>
+        <v>1.058930433350788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043330815334251</v>
+        <v>1.042391990971235</v>
       </c>
       <c r="J18">
-        <v>1.010653156076458</v>
+        <v>1.051542595051756</v>
       </c>
       <c r="K18">
-        <v>1.022954640425654</v>
+        <v>1.053363051322837</v>
       </c>
       <c r="L18">
-        <v>1.005539082240362</v>
+        <v>1.046477434453214</v>
       </c>
       <c r="M18">
-        <v>1.025571838642268</v>
+        <v>1.062177384847306</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.983612677924435</v>
+        <v>1.045621113021884</v>
       </c>
       <c r="D19">
-        <v>1.009813415654803</v>
+        <v>1.050177746016654</v>
       </c>
       <c r="E19">
-        <v>0.9921428373227225</v>
+        <v>1.043280836887256</v>
       </c>
       <c r="F19">
-        <v>1.012528533024995</v>
+        <v>1.059032832850917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043572633962847</v>
+        <v>1.042424707425087</v>
       </c>
       <c r="J19">
-        <v>1.011171058788518</v>
+        <v>1.051634161885123</v>
       </c>
       <c r="K19">
-        <v>1.023401233210639</v>
+        <v>1.053439560178995</v>
       </c>
       <c r="L19">
-        <v>1.006033308059286</v>
+        <v>1.046565732485558</v>
       </c>
       <c r="M19">
-        <v>1.026071053163428</v>
+        <v>1.06226549555885</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9805391912832069</v>
+        <v>1.045088972014915</v>
       </c>
       <c r="D20">
-        <v>1.00747962532055</v>
+        <v>1.049771100795817</v>
       </c>
       <c r="E20">
-        <v>0.9895818176917218</v>
+        <v>1.042820817898275</v>
       </c>
       <c r="F20">
-        <v>1.00995569305382</v>
+        <v>1.058574772627588</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042483922405427</v>
+        <v>1.042278208612339</v>
       </c>
       <c r="J20">
-        <v>1.008841469410625</v>
+        <v>1.051224499533825</v>
       </c>
       <c r="K20">
-        <v>1.021392217322077</v>
+        <v>1.053097226051041</v>
       </c>
       <c r="L20">
-        <v>1.003810365836686</v>
+        <v>1.046170701447977</v>
       </c>
       <c r="M20">
-        <v>1.02382571375325</v>
+        <v>1.061871295906621</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9702220871719047</v>
+        <v>1.043356650682585</v>
       </c>
       <c r="D21">
-        <v>0.9996558672530972</v>
+        <v>1.048446859104319</v>
       </c>
       <c r="E21">
-        <v>0.9809989639051157</v>
+        <v>1.041323468270875</v>
       </c>
       <c r="F21">
-        <v>1.001334452560749</v>
+        <v>1.057083693358385</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038811216643399</v>
+        <v>1.041798699925422</v>
       </c>
       <c r="J21">
-        <v>1.001019813792847</v>
+        <v>1.049889916566873</v>
       </c>
       <c r="K21">
-        <v>1.014643762269331</v>
+        <v>1.051981282621638</v>
       </c>
       <c r="L21">
-        <v>0.9963494855670877</v>
+        <v>1.044883906572893</v>
       </c>
       <c r="M21">
-        <v>1.016290587356387</v>
+        <v>1.060587093878603</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9634633717352683</v>
+        <v>1.042265676773851</v>
       </c>
       <c r="D22">
-        <v>0.9945399114624893</v>
+        <v>1.04761253988534</v>
       </c>
       <c r="E22">
-        <v>0.9753883307647065</v>
+        <v>1.040380621955987</v>
       </c>
       <c r="F22">
-        <v>0.995699962509938</v>
+        <v>1.056144716671084</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03639194170363</v>
+        <v>1.041494725996903</v>
       </c>
       <c r="J22">
-        <v>0.995895382241539</v>
+        <v>1.049048682917633</v>
       </c>
       <c r="K22">
-        <v>1.010220315364131</v>
+        <v>1.05127733024006</v>
       </c>
       <c r="L22">
-        <v>0.9914636411664854</v>
+        <v>1.04407288976837</v>
       </c>
       <c r="M22">
-        <v>1.011357088000101</v>
+        <v>1.059777624810363</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.967073661928939</v>
+        <v>1.042844195888608</v>
       </c>
       <c r="D23">
-        <v>0.9972717206862551</v>
+        <v>1.048054992921122</v>
       </c>
       <c r="E23">
-        <v>0.9783841529893204</v>
+        <v>1.040880577979999</v>
       </c>
       <c r="F23">
-        <v>0.9987083878547957</v>
+        <v>1.056642628093358</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037685435675181</v>
+        <v>1.041656105073591</v>
       </c>
       <c r="J23">
-        <v>0.9986326793882273</v>
+        <v>1.0494948408088</v>
       </c>
       <c r="K23">
-        <v>1.01258335009098</v>
+        <v>1.051650729962292</v>
       </c>
       <c r="L23">
-        <v>0.9940732764477644</v>
+        <v>1.044503012857239</v>
       </c>
       <c r="M23">
-        <v>1.013992069445541</v>
+        <v>1.060206935112738</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9807078831078158</v>
+        <v>1.045117984875067</v>
       </c>
       <c r="D24">
-        <v>1.00760768312628</v>
+        <v>1.049793273237733</v>
       </c>
       <c r="E24">
-        <v>0.9897223331442376</v>
+        <v>1.042845897900576</v>
       </c>
       <c r="F24">
-        <v>1.010096853180487</v>
+        <v>1.058599746241454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042543746107196</v>
+        <v>1.042286205673922</v>
       </c>
       <c r="J24">
-        <v>1.008969339627783</v>
+        <v>1.051246838420802</v>
       </c>
       <c r="K24">
-        <v>1.021502503630274</v>
+        <v>1.053115896171093</v>
       </c>
       <c r="L24">
-        <v>1.003932372544918</v>
+        <v>1.046192242027787</v>
       </c>
       <c r="M24">
-        <v>1.023948946895786</v>
+        <v>1.061892791591591</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9954873891593106</v>
+        <v>1.047749083448769</v>
       </c>
       <c r="D25">
-        <v>1.018841996489166</v>
+        <v>1.051803176975658</v>
       </c>
       <c r="E25">
-        <v>1.002055047389458</v>
+        <v>1.045120666788839</v>
       </c>
       <c r="F25">
-        <v>1.022487634352704</v>
+        <v>1.060864666435097</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047751764770825</v>
+        <v>1.043006662639419</v>
       </c>
       <c r="J25">
-        <v>1.020167580909837</v>
+        <v>1.053270893250966</v>
       </c>
       <c r="K25">
-        <v>1.031154690235152</v>
+        <v>1.054806247793387</v>
       </c>
       <c r="L25">
-        <v>1.014621544940457</v>
+        <v>1.04814418911774</v>
       </c>
       <c r="M25">
-        <v>1.034746607719536</v>
+        <v>1.063840453435577</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_244/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049841917968286</v>
+        <v>1.006565491482256</v>
       </c>
       <c r="D2">
-        <v>1.053400617270444</v>
+        <v>1.027279350514204</v>
       </c>
       <c r="E2">
-        <v>1.046930530253106</v>
+        <v>1.011326604346114</v>
       </c>
       <c r="F2">
-        <v>1.062666392331431</v>
+        <v>1.03180397660367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043572735451399</v>
+        <v>1.051604929878317</v>
       </c>
       <c r="J2">
-        <v>1.054878226620456</v>
+        <v>1.028551587584001</v>
       </c>
       <c r="K2">
-        <v>1.056146689430898</v>
+        <v>1.038371285224719</v>
       </c>
       <c r="L2">
-        <v>1.049694587561332</v>
+        <v>1.022630365063166</v>
       </c>
       <c r="M2">
-        <v>1.065387121013248</v>
+        <v>1.04283732341617</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051358347618561</v>
+        <v>1.01425113201323</v>
       </c>
       <c r="D3">
-        <v>1.054557327506738</v>
+        <v>1.033139393525659</v>
       </c>
       <c r="E3">
-        <v>1.048242175690228</v>
+        <v>1.017772259551202</v>
       </c>
       <c r="F3">
-        <v>1.063971957731935</v>
+        <v>1.038280765943552</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043978837764573</v>
+        <v>1.054247216675504</v>
       </c>
       <c r="J3">
-        <v>1.056041327173583</v>
+        <v>1.03436069475083</v>
       </c>
       <c r="K3">
-        <v>1.057115556701128</v>
+        <v>1.043365106319588</v>
       </c>
       <c r="L3">
-        <v>1.05081667769036</v>
+        <v>1.02818268100742</v>
       </c>
       <c r="M3">
-        <v>1.066506313909522</v>
+        <v>1.048446190862498</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052338173658039</v>
+        <v>1.01907383430225</v>
       </c>
       <c r="D4">
-        <v>1.055304362615863</v>
+        <v>1.036818639114791</v>
       </c>
       <c r="E4">
-        <v>1.049089793449872</v>
+        <v>1.021822326013428</v>
       </c>
       <c r="F4">
-        <v>1.06481555939605</v>
+        <v>1.042350204469067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044239353842964</v>
+        <v>1.055890423303515</v>
       </c>
       <c r="J4">
-        <v>1.056792135404184</v>
+        <v>1.038001901446296</v>
       </c>
       <c r="K4">
-        <v>1.057740469206848</v>
+        <v>1.046492110848378</v>
       </c>
       <c r="L4">
-        <v>1.05154109995509</v>
+        <v>1.031664320126494</v>
       </c>
       <c r="M4">
-        <v>1.067228772077114</v>
+        <v>1.051963017790229</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052749763570396</v>
+        <v>1.021067334570897</v>
       </c>
       <c r="D5">
-        <v>1.055618077640463</v>
+        <v>1.038339864059147</v>
       </c>
       <c r="E5">
-        <v>1.049445873179393</v>
+        <v>1.02349766201006</v>
       </c>
       <c r="F5">
-        <v>1.065169930766176</v>
+        <v>1.044033481894954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044348336093321</v>
+        <v>1.056566026196246</v>
       </c>
       <c r="J5">
-        <v>1.057107350766834</v>
+        <v>1.039505993177361</v>
       </c>
       <c r="K5">
-        <v>1.058002705792262</v>
+        <v>1.047783007579061</v>
       </c>
       <c r="L5">
-        <v>1.051845258430362</v>
+        <v>1.033102822974904</v>
       </c>
       <c r="M5">
-        <v>1.067532083104964</v>
+        <v>1.053415970025408</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052818852254556</v>
+        <v>1.021400116679247</v>
       </c>
       <c r="D6">
-        <v>1.055670732057909</v>
+        <v>1.038593826585142</v>
       </c>
       <c r="E6">
-        <v>1.049505645521731</v>
+        <v>1.02377740033995</v>
       </c>
       <c r="F6">
-        <v>1.065229415083846</v>
+        <v>1.044314541278689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044366603165146</v>
+        <v>1.056678591475074</v>
       </c>
       <c r="J6">
-        <v>1.057160252083043</v>
+        <v>1.039757014037915</v>
       </c>
       <c r="K6">
-        <v>1.058046708646904</v>
+        <v>1.047998400543575</v>
       </c>
       <c r="L6">
-        <v>1.051896305336694</v>
+        <v>1.033342916407938</v>
       </c>
       <c r="M6">
-        <v>1.067582986436316</v>
+        <v>1.053658469234799</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052343674625897</v>
+        <v>1.019100602427235</v>
       </c>
       <c r="D7">
-        <v>1.055308555815779</v>
+        <v>1.036839064314653</v>
       </c>
       <c r="E7">
-        <v>1.049094552414469</v>
+        <v>1.02184481725454</v>
       </c>
       <c r="F7">
-        <v>1.064820295612509</v>
+        <v>1.042372802641296</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044240812183229</v>
+        <v>1.055899509557126</v>
       </c>
       <c r="J7">
-        <v>1.056796348988228</v>
+        <v>1.038022102104577</v>
       </c>
       <c r="K7">
-        <v>1.057743975092326</v>
+        <v>1.046509451367556</v>
       </c>
       <c r="L7">
-        <v>1.05154516565622</v>
+        <v>1.031683638622115</v>
       </c>
       <c r="M7">
-        <v>1.067232826540467</v>
+        <v>1.051982530717978</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050354697972817</v>
+        <v>1.009195325244488</v>
       </c>
       <c r="D8">
-        <v>1.053791832624424</v>
+        <v>1.029283989787763</v>
       </c>
       <c r="E8">
-        <v>1.047374039085285</v>
+        <v>1.013530933542598</v>
       </c>
       <c r="F8">
-        <v>1.06310786311509</v>
+        <v>1.034018976851049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043710448735697</v>
+        <v>1.052512135615612</v>
       </c>
       <c r="J8">
-        <v>1.055271676980944</v>
+        <v>1.03054011207271</v>
       </c>
       <c r="K8">
-        <v>1.056474541392767</v>
+        <v>1.040081379522113</v>
       </c>
       <c r="L8">
-        <v>1.050074146931831</v>
+        <v>1.024530686737054</v>
       </c>
       <c r="M8">
-        <v>1.065765719556167</v>
+        <v>1.044757043097813</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046838767276418</v>
+        <v>0.9904865643149958</v>
       </c>
       <c r="D9">
-        <v>1.0511079795217</v>
+        <v>1.015037611745984</v>
       </c>
       <c r="E9">
-        <v>1.044333561054593</v>
+        <v>0.9978773512952833</v>
       </c>
       <c r="F9">
-        <v>1.060081014239945</v>
+        <v>1.018289989225239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042758479484686</v>
+        <v>1.045997389511285</v>
       </c>
       <c r="J9">
-        <v>1.052571012620835</v>
+        <v>1.016379797912656</v>
       </c>
       <c r="K9">
-        <v>1.054222048159248</v>
+        <v>1.027891336152818</v>
       </c>
       <c r="L9">
-        <v>1.047469191202959</v>
+        <v>1.011004961127752</v>
       </c>
       <c r="M9">
-        <v>1.063166987156192</v>
+        <v>1.031093133590371</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0444868782354</v>
+        <v>0.9770085619297753</v>
       </c>
       <c r="D10">
-        <v>1.049310919235608</v>
+        <v>1.004800404179987</v>
       </c>
       <c r="E10">
-        <v>1.042300359444692</v>
+        <v>0.9866422218064919</v>
       </c>
       <c r="F10">
-        <v>1.058056511637484</v>
+        <v>1.007002721973883</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042111995430485</v>
+        <v>1.041230091580449</v>
       </c>
       <c r="J10">
-        <v>1.05076081334725</v>
+        <v>1.006165036111515</v>
       </c>
       <c r="K10">
-        <v>1.052709623999339</v>
+        <v>1.019083523408417</v>
       </c>
       <c r="L10">
-        <v>1.045723597580537</v>
+        <v>1.001256917365082</v>
       </c>
       <c r="M10">
-        <v>1.061425112625559</v>
+        <v>1.021246680815981</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043466496473812</v>
+        <v>0.9708910444974108</v>
       </c>
       <c r="D11">
-        <v>1.048530848934372</v>
+        <v>1.000162647827243</v>
       </c>
       <c r="E11">
-        <v>1.041418406056197</v>
+        <v>0.9815548092049643</v>
       </c>
       <c r="F11">
-        <v>1.057178238213671</v>
+        <v>1.0018927189239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041829221596281</v>
+        <v>1.039050133268364</v>
       </c>
       <c r="J11">
-        <v>1.049974585501838</v>
+        <v>1.001527012280518</v>
       </c>
       <c r="K11">
-        <v>1.05205211180934</v>
+        <v>1.01508149750017</v>
       </c>
       <c r="L11">
-        <v>1.044965538224853</v>
+        <v>0.9968331644944537</v>
       </c>
       <c r="M11">
-        <v>1.060668566129912</v>
+        <v>1.016779029391549</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043087171848374</v>
+        <v>0.9685721692421719</v>
       </c>
       <c r="D12">
-        <v>1.048240800025717</v>
+        <v>0.9984062587467917</v>
       </c>
       <c r="E12">
-        <v>1.04109056737934</v>
+        <v>0.9796284249568065</v>
       </c>
       <c r="F12">
-        <v>1.056851753821971</v>
+        <v>0.9999579866398186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04172375705516</v>
+        <v>1.038221525176688</v>
       </c>
       <c r="J12">
-        <v>1.049682178191639</v>
+        <v>0.9997688491841373</v>
       </c>
       <c r="K12">
-        <v>1.051807482955587</v>
+        <v>1.013564056152227</v>
       </c>
       <c r="L12">
-        <v>1.044683623398944</v>
+        <v>0.9951566034502478</v>
       </c>
       <c r="M12">
-        <v>1.060387198959076</v>
+        <v>1.015085991603572</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043168552417711</v>
+        <v>0.9690717578312097</v>
       </c>
       <c r="D13">
-        <v>1.048303029994169</v>
+        <v>0.9987845873963249</v>
       </c>
       <c r="E13">
-        <v>1.041160900948644</v>
+        <v>0.9800433586031935</v>
       </c>
       <c r="F13">
-        <v>1.05692179745679</v>
+        <v>1.000374708198031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041746399049079</v>
+        <v>1.038400144761465</v>
       </c>
       <c r="J13">
-        <v>1.049744917281754</v>
+        <v>1.000147637261181</v>
       </c>
       <c r="K13">
-        <v>1.051859974845118</v>
+        <v>1.013890997578667</v>
       </c>
       <c r="L13">
-        <v>1.04474411047734</v>
+        <v>0.9955177933275208</v>
       </c>
       <c r="M13">
-        <v>1.060447569204348</v>
+        <v>1.015450723114095</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04343514774713</v>
+        <v>0.9707003421368204</v>
       </c>
       <c r="D14">
-        <v>1.048506879475095</v>
+        <v>1.000018170367397</v>
       </c>
       <c r="E14">
-        <v>1.041391311784634</v>
+        <v>0.9813963426532846</v>
       </c>
       <c r="F14">
-        <v>1.057151256142726</v>
+        <v>1.001733561149838</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041820512647293</v>
+        <v>1.038982034665644</v>
       </c>
       <c r="J14">
-        <v>1.049950422554126</v>
+        <v>1.001382423452952</v>
       </c>
       <c r="K14">
-        <v>1.052031898894915</v>
+        <v>1.014956712441143</v>
       </c>
       <c r="L14">
-        <v>1.044942241986385</v>
+        <v>0.996695278717608</v>
       </c>
       <c r="M14">
-        <v>1.060645315450162</v>
+        <v>1.016639784979469</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043599364652962</v>
+        <v>0.9716974594725079</v>
       </c>
       <c r="D15">
-        <v>1.048632438459045</v>
+        <v>1.00077365909483</v>
       </c>
       <c r="E15">
-        <v>1.041533243238367</v>
+        <v>0.9822249935200946</v>
       </c>
       <c r="F15">
-        <v>1.057292599285904</v>
+        <v>1.002565835247432</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041866119451921</v>
+        <v>1.039338007038553</v>
       </c>
       <c r="J15">
-        <v>1.050076992263247</v>
+        <v>1.002138425915046</v>
       </c>
       <c r="K15">
-        <v>1.052137773865267</v>
+        <v>1.015609153516775</v>
       </c>
       <c r="L15">
-        <v>1.045064272389437</v>
+        <v>0.9974162488223547</v>
       </c>
       <c r="M15">
-        <v>1.06076710659733</v>
+        <v>1.017367865849326</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044554554728186</v>
+        <v>0.9774082802079599</v>
       </c>
       <c r="D16">
-        <v>1.049362648738497</v>
+        <v>1.005103637396255</v>
       </c>
       <c r="E16">
-        <v>1.042358858245777</v>
+        <v>0.986974899856407</v>
       </c>
       <c r="F16">
-        <v>1.058114764419107</v>
+        <v>1.007336902642511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042130702085244</v>
+        <v>1.04137220785904</v>
       </c>
       <c r="J16">
-        <v>1.050812941566494</v>
+        <v>1.006468062430758</v>
       </c>
       <c r="K16">
-        <v>1.052753205191828</v>
+        <v>1.019344942699026</v>
       </c>
       <c r="L16">
-        <v>1.045773860461813</v>
+        <v>1.001545994813002</v>
       </c>
       <c r="M16">
-        <v>1.061475273079572</v>
+        <v>1.021538646360552</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045153178763844</v>
+        <v>0.9809123385820929</v>
       </c>
       <c r="D17">
-        <v>1.049820169127764</v>
+        <v>1.007762895442361</v>
       </c>
       <c r="E17">
-        <v>1.042876321165436</v>
+        <v>0.9898926463501024</v>
       </c>
       <c r="F17">
-        <v>1.058630040390085</v>
+        <v>1.010267948393243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042295904953318</v>
+        <v>1.042616242291709</v>
       </c>
       <c r="J17">
-        <v>1.051273935915164</v>
+        <v>1.009124317910977</v>
       </c>
       <c r="K17">
-        <v>1.053138542974239</v>
+        <v>1.021636168414765</v>
       </c>
       <c r="L17">
-        <v>1.046218371231637</v>
+        <v>1.004080245778948</v>
       </c>
       <c r="M17">
-        <v>1.061918866269385</v>
+        <v>1.024098307039849</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04550215385481</v>
+        <v>0.9829293582695977</v>
       </c>
       <c r="D18">
-        <v>1.050086847086187</v>
+        <v>1.009294435356221</v>
       </c>
       <c r="E18">
-        <v>1.043177998135683</v>
+        <v>0.9915732900058806</v>
       </c>
       <c r="F18">
-        <v>1.058930433350788</v>
+        <v>1.011956344415568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042391990971235</v>
+        <v>1.043330815334252</v>
       </c>
       <c r="J18">
-        <v>1.051542595051756</v>
+        <v>1.01065315607646</v>
       </c>
       <c r="K18">
-        <v>1.053363051322837</v>
+        <v>1.022954640425655</v>
       </c>
       <c r="L18">
-        <v>1.046477434453214</v>
+        <v>1.005539082240363</v>
       </c>
       <c r="M18">
-        <v>1.062177384847306</v>
+        <v>1.025571838642269</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045621113021884</v>
+        <v>0.983612677924432</v>
       </c>
       <c r="D19">
-        <v>1.050177746016654</v>
+        <v>1.0098134156548</v>
       </c>
       <c r="E19">
-        <v>1.043280836887256</v>
+        <v>0.9921428373227199</v>
       </c>
       <c r="F19">
-        <v>1.059032832850917</v>
+        <v>1.012528533024992</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042424707425087</v>
+        <v>1.043572633962846</v>
       </c>
       <c r="J19">
-        <v>1.051634161885123</v>
+        <v>1.011171058788515</v>
       </c>
       <c r="K19">
-        <v>1.053439560178995</v>
+        <v>1.023401233210636</v>
       </c>
       <c r="L19">
-        <v>1.046565732485558</v>
+        <v>1.006033308059284</v>
       </c>
       <c r="M19">
-        <v>1.06226549555885</v>
+        <v>1.026071053163425</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045088972014915</v>
+        <v>0.980539191283208</v>
       </c>
       <c r="D20">
-        <v>1.049771100795817</v>
+        <v>1.007479625320551</v>
       </c>
       <c r="E20">
-        <v>1.042820817898275</v>
+        <v>0.9895818176917222</v>
       </c>
       <c r="F20">
-        <v>1.058574772627588</v>
+        <v>1.009955693053821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042278208612339</v>
+        <v>1.042483922405428</v>
       </c>
       <c r="J20">
-        <v>1.051224499533825</v>
+        <v>1.008841469410626</v>
       </c>
       <c r="K20">
-        <v>1.053097226051041</v>
+        <v>1.021392217322078</v>
       </c>
       <c r="L20">
-        <v>1.046170701447977</v>
+        <v>1.003810365836687</v>
       </c>
       <c r="M20">
-        <v>1.061871295906621</v>
+        <v>1.023825713753251</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043356650682585</v>
+        <v>0.9702220871719036</v>
       </c>
       <c r="D21">
-        <v>1.048446859104319</v>
+        <v>0.9996558672530961</v>
       </c>
       <c r="E21">
-        <v>1.041323468270875</v>
+        <v>0.9809989639051147</v>
       </c>
       <c r="F21">
-        <v>1.057083693358385</v>
+        <v>1.001334452560748</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041798699925422</v>
+        <v>1.038811216643398</v>
       </c>
       <c r="J21">
-        <v>1.049889916566873</v>
+        <v>1.001019813792846</v>
       </c>
       <c r="K21">
-        <v>1.051981282621638</v>
+        <v>1.01464376226933</v>
       </c>
       <c r="L21">
-        <v>1.044883906572893</v>
+        <v>0.9963494855670866</v>
       </c>
       <c r="M21">
-        <v>1.060587093878603</v>
+        <v>1.016290587356385</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042265676773851</v>
+        <v>0.9634633717352679</v>
       </c>
       <c r="D22">
-        <v>1.04761253988534</v>
+        <v>0.9945399114624887</v>
       </c>
       <c r="E22">
-        <v>1.040380621955987</v>
+        <v>0.9753883307647058</v>
       </c>
       <c r="F22">
-        <v>1.056144716671084</v>
+        <v>0.9956999625099373</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041494725996903</v>
+        <v>1.036391941703629</v>
       </c>
       <c r="J22">
-        <v>1.049048682917633</v>
+        <v>0.9958953822415384</v>
       </c>
       <c r="K22">
-        <v>1.05127733024006</v>
+        <v>1.01022031536413</v>
       </c>
       <c r="L22">
-        <v>1.04407288976837</v>
+        <v>0.9914636411664848</v>
       </c>
       <c r="M22">
-        <v>1.059777624810363</v>
+        <v>1.0113570880001</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042844195888608</v>
+        <v>0.9670736619289371</v>
       </c>
       <c r="D23">
-        <v>1.048054992921122</v>
+        <v>0.9972717206862536</v>
       </c>
       <c r="E23">
-        <v>1.040880577979999</v>
+        <v>0.9783841529893187</v>
       </c>
       <c r="F23">
-        <v>1.056642628093358</v>
+        <v>0.9987083878547938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041656105073591</v>
+        <v>1.03768543567518</v>
       </c>
       <c r="J23">
-        <v>1.0494948408088</v>
+        <v>0.9986326793882256</v>
       </c>
       <c r="K23">
-        <v>1.051650729962292</v>
+        <v>1.012583350090978</v>
       </c>
       <c r="L23">
-        <v>1.044503012857239</v>
+        <v>0.9940732764477628</v>
       </c>
       <c r="M23">
-        <v>1.060206935112738</v>
+        <v>1.013992069445539</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045117984875067</v>
+        <v>0.9807078831078142</v>
       </c>
       <c r="D24">
-        <v>1.049793273237733</v>
+        <v>1.007607683126278</v>
       </c>
       <c r="E24">
-        <v>1.042845897900576</v>
+        <v>0.9897223331442362</v>
       </c>
       <c r="F24">
-        <v>1.058599746241454</v>
+        <v>1.010096853180486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042286205673922</v>
+        <v>1.042543746107195</v>
       </c>
       <c r="J24">
-        <v>1.051246838420802</v>
+        <v>1.008969339627782</v>
       </c>
       <c r="K24">
-        <v>1.053115896171093</v>
+        <v>1.021502503630272</v>
       </c>
       <c r="L24">
-        <v>1.046192242027787</v>
+        <v>1.003932372544916</v>
       </c>
       <c r="M24">
-        <v>1.061892791591591</v>
+        <v>1.023948946895785</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047749083448769</v>
+        <v>0.99548738915931</v>
       </c>
       <c r="D25">
-        <v>1.051803176975658</v>
+        <v>1.018841996489166</v>
       </c>
       <c r="E25">
-        <v>1.045120666788839</v>
+        <v>1.002055047389457</v>
       </c>
       <c r="F25">
-        <v>1.060864666435097</v>
+        <v>1.022487634352703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043006662639419</v>
+        <v>1.047751764770825</v>
       </c>
       <c r="J25">
-        <v>1.053270893250966</v>
+        <v>1.020167580909836</v>
       </c>
       <c r="K25">
-        <v>1.054806247793387</v>
+        <v>1.031154690235151</v>
       </c>
       <c r="L25">
-        <v>1.04814418911774</v>
+        <v>1.014621544940456</v>
       </c>
       <c r="M25">
-        <v>1.063840453435577</v>
+        <v>1.034746607719536</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
